--- a/ipl/Delhi Capitals/Shikhar Dhawan.xlsx
+++ b/ipl/Delhi Capitals/Shikhar Dhawan.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -605,9 +605,473 @@
         <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <v>7</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Super Kings won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Qualifier 1 (N), Dubai (DSC), October 10, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B9" t="str">
+        <v>36</v>
+      </c>
+      <c r="C9" t="str">
+        <v>39</v>
+      </c>
+      <c r="D9" t="str">
+        <v>1</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2</v>
+      </c>
+      <c r="F9" t="str">
+        <v>92.30</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H9" t="str">
+        <v>KKR won by 3 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Qualifier 2 (N), Sharjah, October 13, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B10" t="str">
+        <v>45</v>
+      </c>
+      <c r="C10" t="str">
+        <v>42</v>
+      </c>
+      <c r="D10" t="str">
+        <v>5</v>
+      </c>
+      <c r="E10" t="str">
+        <v>1</v>
+      </c>
+      <c r="F10" t="str">
+        <v>107.14</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Capitals won by 6 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>13th Match (N), Chennai, April 20, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B11" t="str">
+        <v>69</v>
+      </c>
+      <c r="C11" t="str">
+        <v>47</v>
+      </c>
+      <c r="D11" t="str">
+        <v>6</v>
+      </c>
+      <c r="E11" t="str">
+        <v>2</v>
+      </c>
+      <c r="F11" t="str">
+        <v>146.80</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Capitals won by 7 wickets (with 14 balls remaining)</v>
+      </c>
+      <c r="I11" t="str">
+        <v>29th Match (N), Ahmedabad, May 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B12" t="str">
+        <v>46</v>
+      </c>
+      <c r="C12" t="str">
+        <v>47</v>
+      </c>
+      <c r="D12" t="str">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>1</v>
+      </c>
+      <c r="F12" t="str">
+        <v>97.87</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Capitals won by 7 wickets (with 21 balls remaining)</v>
+      </c>
+      <c r="I12" t="str">
+        <v>25th Match (N), Ahmedabad, April 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B13" t="str">
+        <v>6</v>
+      </c>
+      <c r="C13" t="str">
+        <v>7</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H13" t="str">
+        <v>RCB won by 1 run</v>
+      </c>
+      <c r="I13" t="str">
+        <v>22nd Match (N), Ahmedabad, April 27, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B14" t="str">
+        <v>42</v>
+      </c>
+      <c r="C14" t="str">
+        <v>37</v>
+      </c>
+      <c r="D14" t="str">
+        <v>6</v>
+      </c>
+      <c r="E14" t="str">
+        <v>1</v>
+      </c>
+      <c r="F14" t="str">
+        <v>113.51</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Capitals won by 8 wickets (with 13 balls remaining)</v>
+      </c>
+      <c r="I14" t="str">
+        <v>33rd Match (N), Dubai (DSC), September 22, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B15" t="str">
+        <v>8</v>
+      </c>
+      <c r="C15" t="str">
+        <v>8</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Capitals won by 33 runs</v>
+      </c>
+      <c r="I15" t="str">
+        <v>36th Match, Abu Dhabi, September 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B16" t="str">
+        <v>28</v>
+      </c>
+      <c r="C16" t="str">
+        <v>26</v>
+      </c>
+      <c r="D16" t="str">
+        <v>3</v>
+      </c>
+      <c r="E16" t="str">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>107.69</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Match tied (Capitals won the one-over eliminator)</v>
+      </c>
+      <c r="I16" t="str">
+        <v>20th Match (N), Chennai, April 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B17" t="str">
+        <v>8</v>
+      </c>
+      <c r="C17" t="str">
+        <v>7</v>
+      </c>
+      <c r="D17" t="str">
+        <v>0</v>
+      </c>
+      <c r="E17" t="str">
+        <v>1</v>
+      </c>
+      <c r="F17" t="str">
+        <v>114.28</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Capitals won by 4 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="I17" t="str">
+        <v>46th Match, Sharjah, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B18" t="str">
+        <v>43</v>
+      </c>
+      <c r="C18" t="str">
+        <v>35</v>
+      </c>
+      <c r="D18" t="str">
+        <v>3</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2</v>
+      </c>
+      <c r="F18" t="str">
+        <v>122.85</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H18" t="str">
+        <v>RCB won by 7 wickets</v>
+      </c>
+      <c r="I18" t="str">
+        <v>56th Match (N), Dubai (DSC), October 08, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B19" t="str">
+        <v>92</v>
+      </c>
+      <c r="C19" t="str">
+        <v>49</v>
+      </c>
+      <c r="D19" t="str">
+        <v>13</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2</v>
+      </c>
+      <c r="F19" t="str">
+        <v>187.75</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Capitals won by 6 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I19" t="str">
+        <v>11th Match (N), Wankhede, April 18, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B20" t="str">
+        <v>9</v>
+      </c>
+      <c r="C20" t="str">
+        <v>11</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1</v>
+      </c>
+      <c r="E20" t="str">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>81.81</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Royals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I20" t="str">
+        <v>7th Match (N), Wankhede, April 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B21" t="str">
+        <v>85</v>
+      </c>
+      <c r="C21" t="str">
+        <v>54</v>
+      </c>
+      <c r="D21" t="str">
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2</v>
+      </c>
+      <c r="F21" t="str">
+        <v>157.40</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Capitals won by 7 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2nd Match (N), Wankhede, April 10, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B22" t="str">
+        <v>39</v>
+      </c>
+      <c r="C22" t="str">
+        <v>35</v>
+      </c>
+      <c r="D22" t="str">
+        <v>3</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2</v>
+      </c>
+      <c r="F22" t="str">
+        <v>111.42</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Capitals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I22" t="str">
+        <v>50th Match (N), Dubai (DSC), October 04, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Shikhar Dhawan</v>
+      </c>
+      <c r="B23" t="str">
+        <v>24</v>
+      </c>
+      <c r="C23" t="str">
+        <v>20</v>
+      </c>
+      <c r="D23" t="str">
+        <v>5</v>
+      </c>
+      <c r="E23" t="str">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>120.00</v>
+      </c>
+      <c r="G23" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H23" t="str">
+        <v>KKR won by 3 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I23" t="str">
+        <v>41st Match, Sharjah, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I23"/>
   </ignoredErrors>
 </worksheet>
 </file>